--- a/ヘッダー_単体テスト.xlsx
+++ b/ヘッダー_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C5A0D4-6EA7-4501-BD0F-C1AB36095728}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B386B83-D290-40F5-ABBF-88F0DEF07071}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -3100,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="79" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3112,7 +3112,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3152,7 +3152,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3207,7 +3207,7 @@
         <v>139</v>
       </c>
       <c r="G8" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>186</v>
@@ -3245,7 +3245,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>186</v>
@@ -3283,7 +3283,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>186</v>
@@ -3321,7 +3321,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>186</v>
@@ -3359,7 +3359,7 @@
         <v>141</v>
       </c>
       <c r="G16" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>186</v>
@@ -3395,7 +3395,7 @@
         <v>142</v>
       </c>
       <c r="G18" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>186</v>
@@ -3431,7 +3431,7 @@
         <v>143</v>
       </c>
       <c r="G20" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>186</v>
@@ -3467,7 +3467,7 @@
         <v>144</v>
       </c>
       <c r="G22" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>186</v>
@@ -3503,7 +3503,7 @@
         <v>145</v>
       </c>
       <c r="G24" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>186</v>
@@ -3539,7 +3539,7 @@
         <v>146</v>
       </c>
       <c r="G26" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>186</v>
@@ -3575,7 +3575,7 @@
         <v>147</v>
       </c>
       <c r="G28" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>186</v>
@@ -3613,7 +3613,7 @@
         <v>148</v>
       </c>
       <c r="G30" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>186</v>
@@ -3651,7 +3651,7 @@
         <v>149</v>
       </c>
       <c r="G32" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>186</v>
@@ -3687,7 +3687,7 @@
         <v>150</v>
       </c>
       <c r="G34" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>186</v>
@@ -3725,7 +3725,7 @@
         <v>151</v>
       </c>
       <c r="G36" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>186</v>
@@ -3763,7 +3763,7 @@
         <v>152</v>
       </c>
       <c r="G38" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>186</v>
@@ -3814,7 +3814,7 @@
         <v>153</v>
       </c>
       <c r="G41" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>186</v>
@@ -3878,7 +3878,7 @@
         <v>154</v>
       </c>
       <c r="G45" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>186</v>
@@ -3916,7 +3916,7 @@
         <v>155</v>
       </c>
       <c r="G47" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>186</v>
@@ -3967,7 +3967,7 @@
         <v>156</v>
       </c>
       <c r="G50" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>186</v>
@@ -4005,7 +4005,7 @@
         <v>157</v>
       </c>
       <c r="G52" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>186</v>
@@ -4056,7 +4056,7 @@
         <v>158</v>
       </c>
       <c r="G55" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>186</v>
@@ -4094,7 +4094,7 @@
         <v>159</v>
       </c>
       <c r="G57" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>186</v>
@@ -4132,7 +4132,7 @@
         <v>160</v>
       </c>
       <c r="G59" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>186</v>
@@ -4183,7 +4183,7 @@
         <v>161</v>
       </c>
       <c r="G62" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>186</v>
@@ -4221,7 +4221,7 @@
         <v>162</v>
       </c>
       <c r="G64" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>186</v>
@@ -4272,7 +4272,7 @@
         <v>163</v>
       </c>
       <c r="G67" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>186</v>
@@ -4336,7 +4336,7 @@
         <v>164</v>
       </c>
       <c r="G71" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>186</v>
@@ -4374,7 +4374,7 @@
         <v>165</v>
       </c>
       <c r="G73" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>186</v>
@@ -4425,7 +4425,7 @@
         <v>166</v>
       </c>
       <c r="G76" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>186</v>
@@ -4463,7 +4463,7 @@
         <v>167</v>
       </c>
       <c r="G78" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>186</v>
@@ -4514,7 +4514,7 @@
         <v>168</v>
       </c>
       <c r="G81" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>186</v>
@@ -4552,7 +4552,7 @@
         <v>169</v>
       </c>
       <c r="G83" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>186</v>
@@ -4590,7 +4590,7 @@
         <v>170</v>
       </c>
       <c r="G85" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>186</v>
@@ -4641,7 +4641,7 @@
         <v>171</v>
       </c>
       <c r="G88" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>186</v>
@@ -4705,7 +4705,7 @@
         <v>172</v>
       </c>
       <c r="G92" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>186</v>
@@ -4743,7 +4743,7 @@
         <v>173</v>
       </c>
       <c r="G94" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>186</v>
@@ -4794,7 +4794,7 @@
         <v>174</v>
       </c>
       <c r="G97" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>186</v>
@@ -4832,7 +4832,7 @@
         <v>175</v>
       </c>
       <c r="G99" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>186</v>
@@ -4883,7 +4883,7 @@
         <v>176</v>
       </c>
       <c r="G102" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>186</v>
@@ -4921,7 +4921,7 @@
         <v>177</v>
       </c>
       <c r="G104" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>186</v>
@@ -4959,7 +4959,7 @@
         <v>178</v>
       </c>
       <c r="G106" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>186</v>
@@ -5010,7 +5010,7 @@
         <v>179</v>
       </c>
       <c r="G109" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>186</v>
@@ -5048,7 +5048,7 @@
         <v>180</v>
       </c>
       <c r="G111" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>186</v>
@@ -5099,7 +5099,7 @@
         <v>181</v>
       </c>
       <c r="G114" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>186</v>
@@ -5137,7 +5137,7 @@
         <v>182</v>
       </c>
       <c r="G116" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>186</v>
@@ -5188,7 +5188,7 @@
         <v>184</v>
       </c>
       <c r="G119" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>186</v>
@@ -5224,7 +5224,7 @@
         <v>185</v>
       </c>
       <c r="G121" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>186</v>
